--- a/example_table.xlsx
+++ b/example_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishe593\Desktop\python trabajadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14826576-48A7-4C66-96FA-BAF4AA1DE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB5D53-5658-43B1-A7A3-1DAE1CDB881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{265AA66C-FAC0-4818-AFDB-C7543205FC9E}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="2400" windowHeight="585" xr2:uid="{265AA66C-FAC0-4818-AFDB-C7543205FC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>CEDULA</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
     <t>04 de julio de 2023</t>
   </si>
   <si>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>jesus Montealegre Olivares</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>fecha</t>
   </si>
 </sst>
 </file>
@@ -416,59 +416,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213649F7-1CDE-4017-9FAA-C5E30B1DAA37}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>143512</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>7464674</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>586847</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
